--- a/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,64 +606,64 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over2_FT</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under2_FT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over3_FT</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0vu88lwo</t>
+          <t>naF5yLBL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,127 +673,129 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="W2" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>1.54</v>
+        <v>2.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
       </c>
       <c r="AA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
         <v>12</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>34</v>
+      </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
@@ -802,7 +804,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MwyOfnKl</t>
+          <t>x4MK4Mzp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -812,146 +814,142 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="X3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.93</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
+        <v>2.02</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>h0fBkCa6</t>
+          <t>4QK5Q8Mk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -961,141 +959,3140 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0vu88lwo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Newells Old Boys</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MwyOfnKl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.44</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P6" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>h0fBkCa6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>h00cyCEj</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>El Gouna</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>63QWkBTq</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Enppi</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.35</v>
       </c>
-      <c r="R4" t="n">
+      <c r="X9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>n1YPgKUH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Modern Sport</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6TNnInP8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.57</v>
       </c>
-      <c r="S4" t="n">
+      <c r="P11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>S0ZElGUi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IPYEGdH7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wlt6lWPj</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>b1yv3W0E</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
         <v>4.5</v>
       </c>
-      <c r="T4" t="n">
+      <c r="Q15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rmIcejs0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Jong Utrecht</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.18</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="P16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>tv8hMv3D</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Jong PSV</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Venlo</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.38</v>
       </c>
-      <c r="W4" t="n">
+      <c r="H17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="L17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OlbMMlc3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>h4tgxHqp</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MXRXCH5k</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="I20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MJnabIjd</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Al Feiha</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>foQuBez2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>IaRuanO0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S23" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="T23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA23" t="n">
         <v>11</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>17</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
         <v>41</v>
       </c>
-      <c r="AE4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AN23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>S60KqTDj</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
         <v>8</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
         <v>26</v>
       </c>
-      <c r="AH4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AL24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>n5vDijVh</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>10</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
+      <c r="AK25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
@@ -704,10 +704,10 @@
         <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1137,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1373,10 +1373,10 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR6" t="n">
         <v>4</v>
@@ -1528,10 +1528,10 @@
         <v>2.1</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8">
@@ -1566,46 +1566,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U8" t="n">
         <v>1.42</v>
@@ -1617,7 +1617,7 @@
         <v>2.32</v>
       </c>
       <c r="X8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Y8" t="n">
         <v>5.1</v>
@@ -1626,10 +1626,10 @@
         <v>5.5</v>
       </c>
       <c r="AA8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB8" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.75</v>
       </c>
       <c r="AC8" t="n">
         <v>13.5</v>
@@ -1638,13 +1638,13 @@
         <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
         <v>150</v>
@@ -1653,22 +1653,22 @@
         <v>900</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
         <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN8" t="n">
         <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1707,37 +1707,37 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="K9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O9" t="n">
         <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
         <v>1.4</v>
@@ -1752,37 +1752,37 @@
         <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W9" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="X9" t="n">
         <v>1.53</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA9" t="n">
         <v>9.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
         <v>50</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
         <v>22</v>
@@ -1794,19 +1794,19 @@
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
         <v>90</v>
@@ -1848,22 +1848,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="H10" t="n">
         <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="M10" t="n">
         <v>1.18</v>
@@ -1899,7 +1899,7 @@
         <v>2.32</v>
       </c>
       <c r="X10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Y10" t="n">
         <v>8.25</v>
@@ -1908,13 +1908,13 @@
         <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB10" t="n">
         <v>100</v>
       </c>
       <c r="AC10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD10" t="n">
         <v>90</v>
@@ -1941,16 +1941,16 @@
         <v>8.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2007,28 +2007,28 @@
         <v>3.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U11" t="n">
         <v>1.62</v>
@@ -2094,10 +2094,10 @@
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2134,22 +2134,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2158,22 +2158,22 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2182,34 +2182,34 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2275,40 +2275,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
         <v>2.63</v>
@@ -2323,16 +2323,16 @@
         <v>3.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>8.5</v>
@@ -2341,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>23</v>
@@ -2350,13 +2350,13 @@
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="n">
         <v>201</v>
@@ -2553,13 +2553,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2568,7 +2568,7 @@
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2607,22 +2607,22 @@
         <v>2.38</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD15" t="n">
         <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -2649,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>19</v>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
         <v>5.25</v>
@@ -2713,7 +2713,7 @@
         <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2746,10 +2746,10 @@
         <v>3.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -2773,7 +2773,7 @@
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2805,10 +2805,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
@@ -2843,16 +2843,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
@@ -2879,10 +2879,10 @@
         <v>2.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
         <v>1.25</v>
@@ -2909,7 +2909,7 @@
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>19</v>
@@ -2933,16 +2933,16 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
         <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>21</v>
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -3014,10 +3014,10 @@
         <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
         <v>4.33</v>
@@ -3026,10 +3026,10 @@
         <v>1.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W18" t="n">
         <v>1.95</v>
@@ -3038,7 +3038,7 @@
         <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
         <v>15</v>
@@ -3062,13 +3062,13 @@
         <v>6</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3270,61 +3270,61 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J20" t="n">
         <v>5</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.5</v>
-      </c>
       <c r="K20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>29</v>
@@ -3339,48 +3339,48 @@
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
         <v>151</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK20" t="n">
         <v>8.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="21">
@@ -3415,46 +3415,46 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>2.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U21" t="n">
         <v>1.4</v>
@@ -3463,16 +3463,16 @@
         <v>2.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
         <v>9</v>
@@ -3481,13 +3481,13 @@
         <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
         <v>7.5</v>
@@ -3499,10 +3499,10 @@
         <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
@@ -3517,7 +3517,7 @@
         <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3598,19 +3598,19 @@
         <v>1.62</v>
       </c>
       <c r="U22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
@@ -3646,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
         <v>9</v>
@@ -3844,13 +3844,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -3868,28 +3868,28 @@
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W24" t="n">
         <v>1.67</v>
@@ -3901,7 +3901,7 @@
         <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
         <v>8.5</v>
@@ -3910,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
@@ -698,40 +698,40 @@
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L3" t="n">
         <v>4.33</v>
@@ -893,7 +893,7 @@
         <v>9.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -902,13 +902,13 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="n">
         <v>6.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1002,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1020,10 +1020,10 @@
         <v>1.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W4" t="n">
         <v>1.91</v>
@@ -1035,7 +1035,7 @@
         <v>7.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -1068,19 +1068,19 @@
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1176,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
@@ -1185,7 +1185,7 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1197,7 +1197,7 @@
         <v>5.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>81</v>
@@ -1280,7 +1280,7 @@
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L6" t="n">
         <v>4.75</v>
@@ -1316,10 +1316,10 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1334,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
@@ -1355,7 +1355,7 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -1373,10 +1373,10 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR6" t="n">
         <v>4</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>2.2</v>
@@ -1432,13 +1432,13 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
         <v>7.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1447,10 +1447,10 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
         <v>4.33</v>
@@ -1465,10 +1465,10 @@
         <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
@@ -1489,7 +1489,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1507,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1707,43 +1707,43 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="K9" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
         <v>1.14</v>
@@ -1752,64 +1752,64 @@
         <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="X9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AA9" t="n">
         <v>9.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG9" t="n">
         <v>20</v>
       </c>
-      <c r="AD9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>22</v>
-      </c>
       <c r="AH9" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI9" t="n">
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1848,43 +1848,43 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
         <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="K10" t="n">
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="M10" t="n">
         <v>1.18</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P10" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.11</v>
@@ -1893,43 +1893,43 @@
         <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="X10" t="n">
         <v>1.53</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AF10" t="n">
         <v>5.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
@@ -1938,16 +1938,16 @@
         <v>4.8</v>
       </c>
       <c r="AK10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
         <v>55</v>
@@ -1989,94 +1989,94 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.53</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD11" t="n">
         <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2085,19 +2085,19 @@
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2149,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2200,7 +2200,7 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
@@ -2209,7 +2209,7 @@
         <v>7.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         <v>351</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
         <v>11</v>
@@ -2553,79 +2553,79 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>2.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2.38</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>7.5</v>
@@ -2637,19 +2637,19 @@
         <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
         <v>19</v>
@@ -2660,10 +2660,10 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="16">
@@ -2805,10 +2805,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="17">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -2858,7 +2858,7 @@
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -2903,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
@@ -2915,7 +2915,7 @@
         <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>8.5</v>
@@ -2930,7 +2930,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -2996,7 +2996,7 @@
         <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
         <v>3.2</v>
@@ -3005,13 +3005,13 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
         <v>2.35</v>
@@ -3032,10 +3032,10 @@
         <v>2.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -3056,7 +3056,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
         <v>6</v>
@@ -3162,7 +3162,7 @@
         <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
         <v>3.5</v>
@@ -3177,13 +3177,13 @@
         <v>2.63</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -3445,10 +3445,10 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
         <v>3</v>
@@ -3469,16 +3469,16 @@
         <v>1.91</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA21" t="n">
         <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>15</v>
@@ -3487,13 +3487,13 @@
         <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>7.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
@@ -3508,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -3559,55 +3559,55 @@
         <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
         <v>2.4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S22" t="n">
         <v>2.38</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>11</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y22" t="n">
         <v>15</v>
@@ -3616,7 +3616,7 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
         <v>41</v>
@@ -3625,25 +3625,25 @@
         <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>11</v>
@@ -3655,18 +3655,18 @@
         <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="23">
@@ -3701,79 +3701,79 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J23" t="n">
         <v>2.88</v>
       </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.62</v>
       </c>
-      <c r="P23" t="n">
+      <c r="V23" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
         <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>23</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF23" t="n">
         <v>6</v>
@@ -3782,20 +3782,20 @@
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL23" t="n">
         <v>17</v>
       </c>
-      <c r="AL23" t="n">
-        <v>15</v>
-      </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN23" t="n">
         <v>41</v>
@@ -3844,46 +3844,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U24" t="n">
         <v>1.3</v>
@@ -3892,37 +3892,37 @@
         <v>3.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>8.5</v>
       </c>
       <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
         <v>13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>8</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>41</v>
@@ -3934,24 +3934,28 @@
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
+      <c r="AR24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3985,22 +3989,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4015,10 +4019,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>3.25</v>
@@ -4033,25 +4037,25 @@
         <v>2.75</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA25" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
         <v>26</v>
@@ -4060,34 +4064,34 @@
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
       </c>
       <c r="AH25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM25" t="n">
         <v>41</v>
       </c>
-      <c r="AI25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM25" t="n">
+      <c r="AN25" t="n">
         <v>29</v>
       </c>
-      <c r="AN25" t="n">
-        <v>23</v>
-      </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
@@ -734,16 +734,16 @@
         <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -761,13 +761,13 @@
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -776,7 +776,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -794,7 +794,7 @@
         <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -857,10 +857,10 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -881,13 +881,13 @@
         <v>2.38</v>
       </c>
       <c r="W3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z3" t="n">
         <v>9.5</v>
@@ -917,7 +917,7 @@
         <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ3" t="n">
         <v>8.5</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1008,16 +1008,16 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U4" t="n">
         <v>1.5</v>
@@ -1026,13 +1026,13 @@
         <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1050,7 +1050,7 @@
         <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1062,7 +1062,7 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
@@ -1077,7 +1077,7 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
@@ -1131,16 +1131,16 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1173,7 +1173,7 @@
         <v>1.57</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>10</v>
@@ -1182,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>26</v>
@@ -1209,13 +1209,13 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>13</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>34</v>
@@ -1224,13 +1224,13 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.68</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.87</v>
+        <v>4.93</v>
       </c>
       <c r="AS5" t="n">
         <v>1.16</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1277,37 +1277,37 @@
         <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.57</v>
@@ -1316,10 +1316,10 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1328,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
         <v>6</v>
@@ -1349,13 +1349,13 @@
         <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -1373,16 +1373,16 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -1435,10 +1435,10 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -2007,10 +2007,10 @@
         <v>3.1</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2094,10 +2094,10 @@
         <v>34</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2134,70 +2134,70 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
       </c>
       <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y12" t="n">
         <v>8</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
         <v>29</v>
@@ -2206,7 +2206,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>5.5</v>
@@ -2227,19 +2227,23 @@
         <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
         <v>23</v>
       </c>
-      <c r="AN12" t="n">
-        <v>21</v>
-      </c>
       <c r="AO12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
     </row>
@@ -2565,7 +2569,7 @@
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
         <v>3.2</v>
@@ -2583,16 +2587,16 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.53</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2601,16 +2605,16 @@
         <v>3.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
         <v>9.5</v>
@@ -2625,13 +2629,13 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>7.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>34</v>
@@ -2655,15 +2659,15 @@
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="16">
@@ -2698,28 +2702,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
         <v>5.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
         <v>1.18</v>
@@ -2728,10 +2732,10 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
         <v>2.5</v>
@@ -2773,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2805,10 +2809,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="17">
@@ -2843,13 +2847,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -2858,7 +2862,7 @@
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -2897,13 +2901,13 @@
         <v>2.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
         <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
@@ -2930,7 +2934,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -2984,13 +2988,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -2999,7 +3003,7 @@
         <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -3008,10 +3012,10 @@
         <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q18" t="n">
         <v>2.35</v>
@@ -3032,16 +3036,16 @@
         <v>2.38</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
@@ -3050,7 +3054,7 @@
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
@@ -3083,7 +3087,7 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>34</v>
@@ -3129,13 +3133,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.1</v>
@@ -3162,13 +3166,13 @@
         <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3177,10 +3181,10 @@
         <v>2.63</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -3192,10 +3196,10 @@
         <v>9.5</v>
       </c>
       <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
         <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>19</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3219,7 +3223,7 @@
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
         <v>11</v>
@@ -3701,13 +3705,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
@@ -3716,7 +3720,7 @@
         <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.13</v>
@@ -3725,22 +3729,22 @@
         <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U23" t="n">
         <v>1.62</v>
@@ -3749,22 +3753,22 @@
         <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>10</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>21</v>
@@ -3792,10 +3796,10 @@
         <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>41</v>
@@ -3804,10 +3808,10 @@
         <v>51</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
@@ -857,10 +857,10 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -908,7 +908,7 @@
         <v>6.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -923,7 +923,7 @@
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -938,10 +938,10 @@
         <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
@@ -1065,13 +1065,13 @@
         <v>351</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1143,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1155,10 +1155,10 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U5" t="n">
         <v>1.67</v>
@@ -1224,10 +1224,10 @@
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AR5" t="n">
         <v>4.93</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1286,22 +1286,22 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
         <v>5.5</v>
@@ -1310,10 +1310,10 @@
         <v>1.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
         <v>2.2</v>
@@ -1325,13 +1325,13 @@
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>21</v>
@@ -1355,7 +1355,7 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -1373,16 +1373,16 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7">
@@ -1420,91 +1420,91 @@
         <v>1.53</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1522,16 +1522,16 @@
         <v>67</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2013,16 +2013,16 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
         <v>4.5</v>
@@ -2085,7 +2085,7 @@
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
         <v>21</v>
@@ -2094,10 +2094,10 @@
         <v>34</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2134,70 +2134,70 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
         <v>29</v>
@@ -2206,7 +2206,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF12" t="n">
         <v>5.5</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ12" t="n">
         <v>7</v>
@@ -2227,16 +2227,16 @@
         <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP12" t="n">
         <v>1.8</v>
@@ -2988,16 +2988,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>1.95</v>
@@ -3006,46 +3006,46 @@
         <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.57</v>
       </c>
-      <c r="S18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X18" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
@@ -3054,13 +3054,13 @@
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF18" t="n">
         <v>6</v>
@@ -3069,16 +3069,16 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI18" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>10</v>
@@ -3090,13 +3090,13 @@
         <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3705,16 +3705,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
@@ -3723,10 +3723,10 @@
         <v>4.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
@@ -3790,10 +3790,10 @@
       </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -3808,10 +3808,10 @@
         <v>51</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1137,10 +1137,10 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1149,10 +1149,10 @@
         <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
         <v>6.5</v>
@@ -1176,7 +1176,7 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
@@ -1194,7 +1194,7 @@
         <v>5.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1206,28 +1206,28 @@
         <v>101</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO5" t="n">
         <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AR5" t="n">
         <v>4.93</v>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1286,22 +1286,22 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>5.5</v>
@@ -1310,10 +1310,10 @@
         <v>1.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
         <v>2.2</v>
@@ -1373,16 +1373,16 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -1435,10 +1435,10 @@
         <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1447,16 +1447,16 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U7" t="n">
         <v>1.53</v>
@@ -1522,16 +1522,16 @@
         <v>67</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="8">

--- a/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-27.xlsx
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.2</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1459,25 +1459,25 @@
         <v>1.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Z7" t="n">
         <v>5.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
@@ -1489,7 +1489,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1498,7 +1498,7 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
@@ -1507,19 +1507,19 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>81</v>
       </c>
       <c r="AN7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP7" t="n">
         <v>1.98</v>
@@ -1528,10 +1528,10 @@
         <v>1.88</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8">
